--- a/Scripts/winDefs.xlsx
+++ b/Scripts/winDefs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD88DA0C-7DEC-4C43-BEB2-2134EB88F062}" xr6:coauthVersionLast="28" xr6:coauthVersionMax="28" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E7D5A-2066-425F-BF58-930C4CEB78E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -346,10 +346,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D1:D13"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -376,10 +376,10 @@
         <v>1</v>
       </c>
       <c r="B2">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C2">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
@@ -387,7 +387,7 @@
         <v>2</v>
       </c>
       <c r="B3">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3">
         <v>3</v>
@@ -398,7 +398,7 @@
         <v>3</v>
       </c>
       <c r="B4">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="C4">
         <v>4</v>
@@ -413,6 +413,28 @@
       </c>
       <c r="C5">
         <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1440</v>
+      </c>
+      <c r="C6">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>1440</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Scripts/winDefs.xlsx
+++ b/Scripts/winDefs.xlsx
@@ -1,9 +1,9 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{036E7D5A-2066-425F-BF58-930C4CEB78E1}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E22CF5-3E6D-4468-A7B0-238E6A688707}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -349,7 +349,7 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A8" sqref="A8"/>
+      <selection activeCell="O9" sqref="O9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -401,7 +401,7 @@
         <v>1</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">

--- a/Scripts/winDefs.xlsx
+++ b/Scripts/winDefs.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19226"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6E22CF5-3E6D-4468-A7B0-238E6A688707}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4379B597-63C5-4199-9BE2-07CC6B662A31}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,13 +22,13 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
   <si>
-    <t>Window Number</t>
-  </si>
-  <si>
     <t>Elapsed Time (min)</t>
   </si>
   <si>
     <t># Blocks to Divide into</t>
+  </si>
+  <si>
+    <t>Window Type</t>
   </si>
 </sst>
 </file>
@@ -348,9 +348,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="O9" sqref="O9"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -362,13 +360,13 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
